--- a/Code/Results/Cases/Case_0_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_81/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.160541355621124</v>
+        <v>4.916123640948215</v>
       </c>
       <c r="D2">
-        <v>7.033641435967016</v>
+        <v>8.969400099930523</v>
       </c>
       <c r="E2">
-        <v>10.83819885915076</v>
+        <v>13.58350496176993</v>
       </c>
       <c r="F2">
-        <v>25.28915778767167</v>
+        <v>33.7675643087357</v>
       </c>
       <c r="G2">
-        <v>2.07596033467087</v>
+        <v>3.654299887884765</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.40173370027062</v>
+        <v>9.948131869743699</v>
       </c>
       <c r="K2">
-        <v>20.78228527827442</v>
+        <v>15.95505938484501</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.05945917527172</v>
+        <v>17.41358868209829</v>
       </c>
       <c r="O2">
-        <v>17.49000013707073</v>
+        <v>25.44303966054887</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.662187166207358</v>
+        <v>4.750579149002285</v>
       </c>
       <c r="D3">
-        <v>6.725592461317063</v>
+        <v>8.923348493824665</v>
       </c>
       <c r="E3">
-        <v>10.37864282458063</v>
+        <v>13.52742842962071</v>
       </c>
       <c r="F3">
-        <v>24.53651322611274</v>
+        <v>33.77018483041511</v>
       </c>
       <c r="G3">
-        <v>2.082546914002326</v>
+        <v>3.656784836498327</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.28334895058007</v>
+        <v>9.955227870812518</v>
       </c>
       <c r="K3">
-        <v>19.39578777934709</v>
+        <v>15.50193656273498</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.17393873112581</v>
+        <v>17.45741776085186</v>
       </c>
       <c r="O3">
-        <v>17.17086944219349</v>
+        <v>25.49628641335583</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.339378923050219</v>
+        <v>4.647470269827523</v>
       </c>
       <c r="D4">
-        <v>6.531960110667876</v>
+        <v>8.896327848593273</v>
       </c>
       <c r="E4">
-        <v>10.09268068375519</v>
+        <v>13.49570476194992</v>
       </c>
       <c r="F4">
-        <v>24.09048185472285</v>
+        <v>33.78151763719489</v>
       </c>
       <c r="G4">
-        <v>2.086707858393222</v>
+        <v>3.65839104939092</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.213581847954533</v>
+        <v>9.961257513846558</v>
       </c>
       <c r="K4">
-        <v>18.49495223911812</v>
+        <v>15.21898526718314</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.24810326717744</v>
+        <v>17.48621628648429</v>
       </c>
       <c r="O4">
-        <v>16.99235608749319</v>
+        <v>25.53586375545934</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.203564217053565</v>
+        <v>4.605160051666384</v>
       </c>
       <c r="D5">
-        <v>6.452029865112419</v>
+        <v>8.885640407180601</v>
       </c>
       <c r="E5">
-        <v>9.975355980307283</v>
+        <v>13.48346743079205</v>
       </c>
       <c r="F5">
-        <v>23.91291792186818</v>
+        <v>33.78857725309757</v>
       </c>
       <c r="G5">
-        <v>2.088433775889194</v>
+        <v>3.659065889931818</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.185897144165018</v>
+        <v>9.964135325371732</v>
       </c>
       <c r="K5">
-        <v>18.11532825137835</v>
+        <v>15.10266227619425</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.27928238569631</v>
+        <v>17.49842728538048</v>
       </c>
       <c r="O5">
-        <v>16.92392304215521</v>
+        <v>25.55371630187722</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.180753406942854</v>
+        <v>4.598119124867017</v>
       </c>
       <c r="D6">
-        <v>6.438699058600419</v>
+        <v>8.883885542932203</v>
       </c>
       <c r="E6">
-        <v>9.955831515975969</v>
+        <v>13.48147738528613</v>
       </c>
       <c r="F6">
-        <v>23.88369132748966</v>
+        <v>33.78989680966048</v>
       </c>
       <c r="G6">
-        <v>2.08872221968875</v>
+        <v>3.659179174483187</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.181345478194257</v>
+        <v>9.96463859193196</v>
       </c>
       <c r="K6">
-        <v>18.05153336423164</v>
+        <v>15.08329068022673</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.2845169453452</v>
+        <v>17.50048364695192</v>
       </c>
       <c r="O6">
-        <v>16.91281786025925</v>
+        <v>25.55678465619272</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.337564609278823</v>
+        <v>4.646900739729682</v>
       </c>
       <c r="D7">
-        <v>6.530886137524337</v>
+        <v>8.896182393074783</v>
       </c>
       <c r="E7">
-        <v>10.09110138432255</v>
+        <v>13.49553691804038</v>
       </c>
       <c r="F7">
-        <v>24.08806997658495</v>
+        <v>33.78160296674066</v>
       </c>
       <c r="G7">
-        <v>2.086731010833781</v>
+        <v>3.658400068260646</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.213205448020219</v>
+        <v>9.961294621677668</v>
       </c>
       <c r="K7">
-        <v>18.48988330976374</v>
+        <v>15.2174203815924</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.2485199087796</v>
+        <v>17.48637904250103</v>
       </c>
       <c r="O7">
-        <v>16.99141581985731</v>
+        <v>25.53609754791918</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.992175297545616</v>
+        <v>4.859391310544996</v>
       </c>
       <c r="D8">
-        <v>6.928416494906514</v>
+        <v>8.953265938064835</v>
       </c>
       <c r="E8">
-        <v>10.68062136612371</v>
+        <v>13.56361376713552</v>
       </c>
       <c r="F8">
-        <v>25.02639675663447</v>
+        <v>33.76644795555642</v>
       </c>
       <c r="G8">
-        <v>2.078207735754735</v>
+        <v>3.655140042543036</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.360315349010022</v>
+        <v>9.950231486607937</v>
       </c>
       <c r="K8">
-        <v>20.31445282107763</v>
+        <v>15.79990447141543</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.09811657218407</v>
+        <v>17.42830971134472</v>
       </c>
       <c r="O8">
-        <v>17.37630718485493</v>
+        <v>25.45996671050744</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.144252626279815</v>
+        <v>5.261443841907582</v>
       </c>
       <c r="D9">
-        <v>7.668471044346512</v>
+        <v>9.074794738222765</v>
       </c>
       <c r="E9">
-        <v>11.80057404076711</v>
+        <v>13.71814083728012</v>
       </c>
       <c r="F9">
-        <v>26.98756911632159</v>
+        <v>33.81397547757095</v>
       </c>
       <c r="G9">
-        <v>2.06237474929655</v>
+        <v>3.649382358657098</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.671456474219078</v>
+        <v>9.941801635677921</v>
       </c>
       <c r="K9">
-        <v>23.50310209018196</v>
+        <v>16.89762816754396</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.83480558005066</v>
+        <v>17.32937612123297</v>
       </c>
       <c r="O9">
-        <v>18.2718871759491</v>
+        <v>25.36555917918594</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.913078971368755</v>
+        <v>5.544277735999106</v>
       </c>
       <c r="D10">
-        <v>8.183898843641757</v>
+        <v>9.16940594799334</v>
       </c>
       <c r="E10">
-        <v>12.59488075765945</v>
+        <v>13.84383031914718</v>
       </c>
       <c r="F10">
-        <v>28.49410617528768</v>
+        <v>33.89600353946667</v>
       </c>
       <c r="G10">
-        <v>2.051211693590787</v>
+        <v>3.645535130340999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.913192292488388</v>
+        <v>9.943680122281066</v>
       </c>
       <c r="K10">
-        <v>25.61380495337725</v>
+        <v>17.66846693282252</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.66204196495626</v>
+        <v>17.26575110314621</v>
       </c>
       <c r="O10">
-        <v>19.01833613420673</v>
+        <v>25.32998575286488</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.246592332762162</v>
+        <v>5.669572453470605</v>
       </c>
       <c r="D11">
-        <v>8.411607361883338</v>
+        <v>9.213485429772643</v>
       </c>
       <c r="E11">
-        <v>12.94907611309402</v>
+        <v>13.90349355057506</v>
       </c>
       <c r="F11">
-        <v>29.19232272572721</v>
+        <v>33.94351544703883</v>
       </c>
       <c r="G11">
-        <v>2.046218950756518</v>
+        <v>3.643867162489959</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.025895389650034</v>
+        <v>9.946281745470424</v>
       </c>
       <c r="K11">
-        <v>26.52490032008173</v>
+        <v>18.00983743008923</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.58830625978611</v>
+        <v>17.23876462660627</v>
       </c>
       <c r="O11">
-        <v>19.37753454634166</v>
+        <v>25.32119615609275</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.370603725364145</v>
+        <v>5.716487738534877</v>
       </c>
       <c r="D12">
-        <v>8.496824894467846</v>
+        <v>9.230316437176549</v>
       </c>
       <c r="E12">
-        <v>13.08211942928368</v>
+        <v>13.92642979119757</v>
       </c>
       <c r="F12">
-        <v>29.45848508004158</v>
+        <v>33.96296719045193</v>
       </c>
       <c r="G12">
-        <v>2.044339139607455</v>
+        <v>3.643247290664433</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.068958590480072</v>
+        <v>9.947517402451131</v>
       </c>
       <c r="K12">
-        <v>26.86296089793422</v>
+        <v>18.13765571290498</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.56111810148035</v>
+        <v>17.22882626086918</v>
       </c>
       <c r="O12">
-        <v>19.51640569548714</v>
+        <v>25.31893434137613</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.343996342363489</v>
+        <v>5.706408002415883</v>
       </c>
       <c r="D13">
-        <v>8.478517226061786</v>
+        <v>9.226685563714533</v>
       </c>
       <c r="E13">
-        <v>13.05351502685838</v>
+        <v>13.92147504002124</v>
       </c>
       <c r="F13">
-        <v>29.40108496237005</v>
+        <v>33.95871309526679</v>
       </c>
       <c r="G13">
-        <v>2.044743533140208</v>
+        <v>3.643380269496527</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.05966714190608</v>
+        <v>9.947240154927208</v>
       </c>
       <c r="K13">
-        <v>26.79046092448106</v>
+        <v>18.11019402886862</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.56694030114262</v>
+        <v>17.23095418466943</v>
       </c>
       <c r="O13">
-        <v>19.48637007168487</v>
+        <v>25.31937397749624</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.256840274840309</v>
+        <v>5.673443095557225</v>
       </c>
       <c r="D14">
-        <v>8.418638698605427</v>
+        <v>9.214867400944376</v>
       </c>
       <c r="E14">
-        <v>12.96004362378318</v>
+        <v>13.90537373827806</v>
       </c>
       <c r="F14">
-        <v>29.21418514092049</v>
+        <v>33.94508653558735</v>
       </c>
       <c r="G14">
-        <v>2.046064089185173</v>
+        <v>3.643815930102368</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.029430547929559</v>
+        <v>9.946378388538074</v>
       </c>
       <c r="K14">
-        <v>26.55285145835191</v>
+        <v>18.02038282630279</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.5860545444921</v>
+        <v>17.23794136624823</v>
       </c>
       <c r="O14">
-        <v>19.38890226686354</v>
+        <v>25.32098868116015</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.203158929654435</v>
+        <v>5.6531806744748</v>
       </c>
       <c r="D15">
-        <v>8.381828785041447</v>
+        <v>9.207646228849438</v>
       </c>
       <c r="E15">
-        <v>12.90264732711281</v>
+        <v>13.89555546410431</v>
       </c>
       <c r="F15">
-        <v>29.09993102096428</v>
+        <v>33.9369297922435</v>
       </c>
       <c r="G15">
-        <v>2.046874333582648</v>
+        <v>3.64408431333595</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.010959693511394</v>
+        <v>9.945883126829196</v>
       </c>
       <c r="K15">
-        <v>26.40640675088297</v>
+        <v>17.965178626299</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.59785928493211</v>
+        <v>17.24225777226573</v>
       </c>
       <c r="O15">
-        <v>19.3295724857685</v>
+        <v>25.32211673033925</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.8909607948576</v>
+        <v>5.536017537314384</v>
       </c>
       <c r="D16">
-        <v>8.168877963158385</v>
+        <v>9.166545289142162</v>
       </c>
       <c r="E16">
-        <v>12.57158437754757</v>
+        <v>13.83997999637788</v>
       </c>
       <c r="F16">
-        <v>28.44872701121203</v>
+        <v>33.89310321855046</v>
       </c>
       <c r="G16">
-        <v>2.051539578350416</v>
+        <v>3.645645783792741</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.905881153045168</v>
+        <v>9.943545194991508</v>
       </c>
       <c r="K16">
-        <v>25.55328408975082</v>
+        <v>17.64596051863768</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.66696143242225</v>
+        <v>17.26755406092509</v>
       </c>
       <c r="O16">
-        <v>18.99525904646071</v>
+        <v>25.33070925614147</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.695315895060348</v>
+        <v>5.46324413466133</v>
       </c>
       <c r="D17">
-        <v>8.036476889122202</v>
+        <v>9.14159022970056</v>
       </c>
       <c r="E17">
-        <v>12.36661365268942</v>
+        <v>13.80651297770976</v>
       </c>
       <c r="F17">
-        <v>28.05246160740204</v>
+        <v>33.86882484225671</v>
       </c>
       <c r="G17">
-        <v>2.054422432485262</v>
+        <v>3.646624692772856</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.842112819762966</v>
+        <v>9.942557930962707</v>
       </c>
       <c r="K17">
-        <v>25.01742485841983</v>
+        <v>17.44766571769579</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.71062109817328</v>
+        <v>17.28357330337544</v>
       </c>
       <c r="O17">
-        <v>18.79521636050873</v>
+        <v>25.33787673794365</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.581255306406801</v>
+        <v>5.421072245967527</v>
       </c>
       <c r="D18">
-        <v>7.959688394069321</v>
+        <v>9.127335309927746</v>
       </c>
       <c r="E18">
-        <v>12.24805013781593</v>
+        <v>13.78749857733761</v>
       </c>
       <c r="F18">
-        <v>27.82575678086179</v>
+        <v>33.85582084326958</v>
       </c>
       <c r="G18">
-        <v>2.056088704331382</v>
+        <v>3.647195471907152</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.805692875127237</v>
+        <v>9.942154580859212</v>
       </c>
       <c r="K18">
-        <v>24.70458704771572</v>
+        <v>17.33274374743027</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.73618761159886</v>
+        <v>17.2929713695703</v>
       </c>
       <c r="O18">
-        <v>18.68200367428397</v>
+        <v>25.34269497718569</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.542371926747187</v>
+        <v>5.406741059313327</v>
       </c>
       <c r="D19">
-        <v>7.933581427849214</v>
+        <v>9.122526086063106</v>
       </c>
       <c r="E19">
-        <v>12.20779355215428</v>
+        <v>13.78110141120583</v>
       </c>
       <c r="F19">
-        <v>27.7492105786696</v>
+        <v>33.85158300240609</v>
       </c>
       <c r="G19">
-        <v>2.056654313902933</v>
+        <v>3.647390058590991</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.793406306945942</v>
+        <v>9.942046286758123</v>
       </c>
       <c r="K19">
-        <v>24.59786795901198</v>
+        <v>17.2936877685718</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.74492105308839</v>
+        <v>17.29618505122938</v>
       </c>
       <c r="O19">
-        <v>18.64398815823051</v>
+        <v>25.34444571695126</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.716300702663776</v>
+        <v>5.471023898748402</v>
       </c>
       <c r="D20">
-        <v>8.050637230569009</v>
+        <v>9.144236612373884</v>
       </c>
       <c r="E20">
-        <v>12.38850292160005</v>
+        <v>13.8100513862082</v>
       </c>
       <c r="F20">
-        <v>28.09451957238677</v>
+        <v>33.87130997085976</v>
       </c>
       <c r="G20">
-        <v>2.054114716375251</v>
+        <v>3.646519685987219</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.848874444796739</v>
+        <v>9.94264600697128</v>
       </c>
       <c r="K20">
-        <v>25.07494599395461</v>
+        <v>17.46886525155689</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.70592615386032</v>
+        <v>17.28184896558774</v>
       </c>
       <c r="O20">
-        <v>18.81631994325248</v>
+        <v>25.33704171773154</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.282501660833574</v>
+        <v>5.683140448501101</v>
       </c>
       <c r="D21">
-        <v>8.436254158294302</v>
+        <v>9.218334992703026</v>
       </c>
       <c r="E21">
-        <v>12.98752818360717</v>
+        <v>13.91009388837724</v>
       </c>
       <c r="F21">
-        <v>29.26903487348535</v>
+        <v>33.94904942163754</v>
       </c>
       <c r="G21">
-        <v>2.045675928010442</v>
+        <v>3.643687647588081</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.038301373684172</v>
+        <v>9.946624718963335</v>
       </c>
       <c r="K21">
-        <v>26.62283090703776</v>
+        <v>18.046802807999</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.5804200029751</v>
+        <v>17.23588144448263</v>
       </c>
       <c r="O21">
-        <v>19.41745333353144</v>
+        <v>25.32048543155279</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.639266161310195</v>
+        <v>5.818657158542799</v>
       </c>
       <c r="D22">
-        <v>8.682375232381979</v>
+        <v>9.267568111895407</v>
       </c>
       <c r="E22">
-        <v>13.37270137900622</v>
+        <v>13.97747000549631</v>
       </c>
       <c r="F22">
-        <v>30.04690441141857</v>
+        <v>34.00836247680807</v>
       </c>
       <c r="G22">
-        <v>2.040223069447912</v>
+        <v>3.641905214247969</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.164345041759143</v>
+        <v>9.950684573105724</v>
       </c>
       <c r="K22">
-        <v>27.5939984190765</v>
+        <v>18.4160132266349</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.5026921607057</v>
+        <v>17.20747564122662</v>
       </c>
       <c r="O22">
-        <v>19.82695903059254</v>
+        <v>25.31588309451735</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.450051797170026</v>
+        <v>5.746628350837246</v>
       </c>
       <c r="D23">
-        <v>8.551565786746774</v>
+        <v>9.241221296698567</v>
       </c>
       <c r="E23">
-        <v>13.16771971807147</v>
+        <v>13.941332715691</v>
       </c>
       <c r="F23">
-        <v>29.63082417236167</v>
+        <v>33.97593026741616</v>
       </c>
       <c r="G23">
-        <v>2.0431281653221</v>
+        <v>3.642850288219403</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.096870031872915</v>
+        <v>9.94838448866494</v>
       </c>
       <c r="K23">
-        <v>27.07933403153279</v>
+        <v>18.21977223429096</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.54377081868408</v>
+        <v>17.22248678287908</v>
       </c>
       <c r="O23">
-        <v>19.60686664512879</v>
+        <v>25.317769516586</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.706818401695864</v>
+        <v>5.467507702578338</v>
       </c>
       <c r="D24">
-        <v>8.044237422060329</v>
+        <v>9.143039895174084</v>
       </c>
       <c r="E24">
-        <v>12.37860903098416</v>
+        <v>13.80845096595482</v>
       </c>
       <c r="F24">
-        <v>28.07550169109028</v>
+        <v>33.87018347214912</v>
       </c>
       <c r="G24">
-        <v>2.054253807059807</v>
+        <v>3.64656713465732</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.845816761776681</v>
+        <v>9.942605676156143</v>
       </c>
       <c r="K24">
-        <v>25.04895553900202</v>
+        <v>17.45928379785379</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.70804728938336</v>
+        <v>17.28262795180566</v>
       </c>
       <c r="O24">
-        <v>18.80677342594165</v>
+        <v>25.33741705771497</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.846410377309615</v>
+        <v>5.154643385176754</v>
       </c>
       <c r="D25">
-        <v>7.472980745811407</v>
+        <v>9.040943942996281</v>
       </c>
       <c r="E25">
-        <v>11.50221314642549</v>
+        <v>13.67415111433777</v>
       </c>
       <c r="F25">
-        <v>26.44494163019885</v>
+        <v>33.79283911167211</v>
       </c>
       <c r="G25">
-        <v>2.066570362917127</v>
+        <v>3.650872406821493</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.584929976607135</v>
+        <v>9.942663040418962</v>
       </c>
       <c r="K25">
-        <v>22.68163536792917</v>
+        <v>16.60635735598012</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.90251732801733</v>
+        <v>17.3545457183702</v>
       </c>
       <c r="O25">
-        <v>18.01422565106424</v>
+        <v>25.38518664982512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_81/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.916123640948215</v>
+        <v>7.160541355621164</v>
       </c>
       <c r="D2">
-        <v>8.969400099930523</v>
+        <v>7.033641435967051</v>
       </c>
       <c r="E2">
-        <v>13.58350496176993</v>
+        <v>10.8381988591508</v>
       </c>
       <c r="F2">
-        <v>33.7675643087357</v>
+        <v>25.28915778767157</v>
       </c>
       <c r="G2">
-        <v>3.654299887884765</v>
+        <v>2.075960334671137</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.948131869743699</v>
+        <v>6.401733700270625</v>
       </c>
       <c r="K2">
-        <v>15.95505938484501</v>
+        <v>20.78228527827448</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.41358868209829</v>
+        <v>12.05945917527169</v>
       </c>
       <c r="O2">
-        <v>25.44303966054887</v>
+        <v>17.4900001370706</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750579149002285</v>
+        <v>6.662187166207366</v>
       </c>
       <c r="D3">
-        <v>8.923348493824665</v>
+        <v>6.725592461317144</v>
       </c>
       <c r="E3">
-        <v>13.52742842962071</v>
+        <v>10.37864282458064</v>
       </c>
       <c r="F3">
-        <v>33.77018483041511</v>
+        <v>24.5365132261126</v>
       </c>
       <c r="G3">
-        <v>3.656784836498327</v>
+        <v>2.082546914002191</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.955227870812518</v>
+        <v>6.283348950580028</v>
       </c>
       <c r="K3">
-        <v>15.50193656273498</v>
+        <v>19.39578777934713</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.45741776085186</v>
+        <v>12.17393873112578</v>
       </c>
       <c r="O3">
-        <v>25.49628641335583</v>
+        <v>17.17086944219336</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.647470269827523</v>
+        <v>6.339378923050211</v>
       </c>
       <c r="D4">
-        <v>8.896327848593273</v>
+        <v>6.531960110667809</v>
       </c>
       <c r="E4">
-        <v>13.49570476194992</v>
+        <v>10.09268068375513</v>
       </c>
       <c r="F4">
-        <v>33.78151763719489</v>
+        <v>24.09048185472278</v>
       </c>
       <c r="G4">
-        <v>3.65839104939092</v>
+        <v>2.086707858393224</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.961257513846558</v>
+        <v>6.213581847954487</v>
       </c>
       <c r="K4">
-        <v>15.21898526718314</v>
+        <v>18.49495223911815</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.48621628648429</v>
+        <v>12.24810326717744</v>
       </c>
       <c r="O4">
-        <v>25.53586375545934</v>
+        <v>16.99235608749317</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.605160051666384</v>
+        <v>6.203564217053525</v>
       </c>
       <c r="D5">
-        <v>8.885640407180601</v>
+        <v>6.452029865112364</v>
       </c>
       <c r="E5">
-        <v>13.48346743079205</v>
+        <v>9.975355980307286</v>
       </c>
       <c r="F5">
-        <v>33.78857725309757</v>
+        <v>23.91291792186816</v>
       </c>
       <c r="G5">
-        <v>3.659065889931818</v>
+        <v>2.088433775889327</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.964135325371732</v>
+        <v>6.185897144165064</v>
       </c>
       <c r="K5">
-        <v>15.10266227619425</v>
+        <v>18.11532825137837</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.49842728538048</v>
+        <v>12.27928238569634</v>
       </c>
       <c r="O5">
-        <v>25.55371630187722</v>
+        <v>16.92392304215521</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.598119124867017</v>
+        <v>6.180753406942935</v>
       </c>
       <c r="D6">
-        <v>8.883885542932203</v>
+        <v>6.438699058600418</v>
       </c>
       <c r="E6">
-        <v>13.48147738528613</v>
+        <v>9.955831515975982</v>
       </c>
       <c r="F6">
-        <v>33.78989680966048</v>
+        <v>23.88369132748967</v>
       </c>
       <c r="G6">
-        <v>3.659179174483187</v>
+        <v>2.088722219688615</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.96463859193196</v>
+        <v>6.181345478194255</v>
       </c>
       <c r="K6">
-        <v>15.08329068022673</v>
+        <v>18.05153336423161</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.50048364695192</v>
+        <v>12.2845169453452</v>
       </c>
       <c r="O6">
-        <v>25.55678465619272</v>
+        <v>16.91281786025927</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.646900739729682</v>
+        <v>6.337564609278905</v>
       </c>
       <c r="D7">
-        <v>8.896182393074783</v>
+        <v>6.530886137524372</v>
       </c>
       <c r="E7">
-        <v>13.49553691804038</v>
+        <v>10.09110138432253</v>
       </c>
       <c r="F7">
-        <v>33.78160296674066</v>
+        <v>24.08806997658485</v>
       </c>
       <c r="G7">
-        <v>3.658400068260646</v>
+        <v>2.086731010833648</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.961294621677668</v>
+        <v>6.213205448020132</v>
       </c>
       <c r="K7">
-        <v>15.2174203815924</v>
+        <v>18.48988330976378</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.48637904250103</v>
+        <v>12.2485199087795</v>
       </c>
       <c r="O7">
-        <v>25.53609754791918</v>
+        <v>16.99141581985718</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.859391310544996</v>
+        <v>6.99217529754551</v>
       </c>
       <c r="D8">
-        <v>8.953265938064835</v>
+        <v>6.928416494906482</v>
       </c>
       <c r="E8">
-        <v>13.56361376713552</v>
+        <v>10.68062136612374</v>
       </c>
       <c r="F8">
-        <v>33.76644795555642</v>
+        <v>25.02639675663442</v>
       </c>
       <c r="G8">
-        <v>3.655140042543036</v>
+        <v>2.078207735754735</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.950231486607937</v>
+        <v>6.360315349010071</v>
       </c>
       <c r="K8">
-        <v>15.79990447141543</v>
+        <v>20.3144528210776</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.42830971134472</v>
+        <v>12.09811657218401</v>
       </c>
       <c r="O8">
-        <v>25.45996671050744</v>
+        <v>17.37630718485492</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.261443841907582</v>
+        <v>8.144252626279831</v>
       </c>
       <c r="D9">
-        <v>9.074794738222765</v>
+        <v>7.668471044346472</v>
       </c>
       <c r="E9">
-        <v>13.71814083728012</v>
+        <v>11.8005740407671</v>
       </c>
       <c r="F9">
-        <v>33.81397547757095</v>
+        <v>26.98756911632157</v>
       </c>
       <c r="G9">
-        <v>3.649382358657098</v>
+        <v>2.062374749296549</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.941801635677921</v>
+        <v>6.671456474219093</v>
       </c>
       <c r="K9">
-        <v>16.89762816754396</v>
+        <v>23.50310209018196</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.32937612123297</v>
+        <v>11.83480558005066</v>
       </c>
       <c r="O9">
-        <v>25.36555917918594</v>
+        <v>18.27188717594912</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.544277735999106</v>
+        <v>8.913078971368764</v>
       </c>
       <c r="D10">
-        <v>9.16940594799334</v>
+        <v>8.183898843641725</v>
       </c>
       <c r="E10">
-        <v>13.84383031914718</v>
+        <v>12.59488075765941</v>
       </c>
       <c r="F10">
-        <v>33.89600353946667</v>
+        <v>28.49410617528763</v>
       </c>
       <c r="G10">
-        <v>3.645535130340999</v>
+        <v>2.051211693590789</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.943680122281066</v>
+        <v>6.913192292488383</v>
       </c>
       <c r="K10">
-        <v>17.66846693282252</v>
+        <v>25.61380495337723</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.26575110314621</v>
+        <v>11.66204196495624</v>
       </c>
       <c r="O10">
-        <v>25.32998575286488</v>
+        <v>19.01833613420671</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.669572453470605</v>
+        <v>9.246592332762178</v>
       </c>
       <c r="D11">
-        <v>9.213485429772643</v>
+        <v>8.411607361883307</v>
       </c>
       <c r="E11">
-        <v>13.90349355057506</v>
+        <v>12.94907611309401</v>
       </c>
       <c r="F11">
-        <v>33.94351544703883</v>
+        <v>29.19232272572726</v>
       </c>
       <c r="G11">
-        <v>3.643867162489959</v>
+        <v>2.046218950756652</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.946281745470424</v>
+        <v>7.025895389650015</v>
       </c>
       <c r="K11">
-        <v>18.00983743008923</v>
+        <v>26.52490032008172</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.23876462660627</v>
+        <v>11.58830625978614</v>
       </c>
       <c r="O11">
-        <v>25.32119615609275</v>
+        <v>19.37753454634171</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.716487738534877</v>
+        <v>9.370603725364308</v>
       </c>
       <c r="D12">
-        <v>9.230316437176549</v>
+        <v>8.496824894467869</v>
       </c>
       <c r="E12">
-        <v>13.92642979119757</v>
+        <v>13.08211942928369</v>
       </c>
       <c r="F12">
-        <v>33.96296719045193</v>
+        <v>29.45848508004159</v>
       </c>
       <c r="G12">
-        <v>3.643247290664433</v>
+        <v>2.044339139607588</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.947517402451131</v>
+        <v>7.06895859048007</v>
       </c>
       <c r="K12">
-        <v>18.13765571290498</v>
+        <v>26.86296089793424</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.22882626086918</v>
+        <v>11.56111810148035</v>
       </c>
       <c r="O12">
-        <v>25.31893434137613</v>
+        <v>19.51640569548714</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.706408002415883</v>
+        <v>9.343996342363473</v>
       </c>
       <c r="D13">
-        <v>9.226685563714533</v>
+        <v>8.478517226061747</v>
       </c>
       <c r="E13">
-        <v>13.92147504002124</v>
+        <v>13.05351502685837</v>
       </c>
       <c r="F13">
-        <v>33.95871309526679</v>
+        <v>29.40108496237002</v>
       </c>
       <c r="G13">
-        <v>3.643380269496527</v>
+        <v>2.044743533140343</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.947240154927208</v>
+        <v>7.059667141906085</v>
       </c>
       <c r="K13">
-        <v>18.11019402886862</v>
+        <v>26.79046092448104</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.23095418466943</v>
+        <v>11.56694030114262</v>
       </c>
       <c r="O13">
-        <v>25.31937397749624</v>
+        <v>19.48637007168487</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.673443095557225</v>
+        <v>9.256840274840261</v>
       </c>
       <c r="D14">
-        <v>9.214867400944376</v>
+        <v>8.418638698605456</v>
       </c>
       <c r="E14">
-        <v>13.90537373827806</v>
+        <v>12.96004362378326</v>
       </c>
       <c r="F14">
-        <v>33.94508653558735</v>
+        <v>29.21418514092044</v>
       </c>
       <c r="G14">
-        <v>3.643815930102368</v>
+        <v>2.046064089185307</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.946378388538074</v>
+        <v>7.029430547929623</v>
       </c>
       <c r="K14">
-        <v>18.02038282630279</v>
+        <v>26.5528514583519</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.23794136624823</v>
+        <v>11.58605454449208</v>
       </c>
       <c r="O14">
-        <v>25.32098868116015</v>
+        <v>19.38890226686346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.6531806744748</v>
+        <v>9.203158929654306</v>
       </c>
       <c r="D15">
-        <v>9.207646228849438</v>
+        <v>8.381828785041462</v>
       </c>
       <c r="E15">
-        <v>13.89555546410431</v>
+        <v>12.90264732711283</v>
       </c>
       <c r="F15">
-        <v>33.9369297922435</v>
+        <v>29.09993102096437</v>
       </c>
       <c r="G15">
-        <v>3.64408431333595</v>
+        <v>2.04687433358238</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.945883126829196</v>
+        <v>7.010959693511433</v>
       </c>
       <c r="K15">
-        <v>17.965178626299</v>
+        <v>26.40640675088289</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.24225777226573</v>
+        <v>11.59785928493217</v>
       </c>
       <c r="O15">
-        <v>25.32211673033925</v>
+        <v>19.32957248576858</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.536017537314384</v>
+        <v>8.890960794857659</v>
       </c>
       <c r="D16">
-        <v>9.166545289142162</v>
+        <v>8.168877963158367</v>
       </c>
       <c r="E16">
-        <v>13.83997999637788</v>
+        <v>12.5715843775476</v>
       </c>
       <c r="F16">
-        <v>33.89310321855046</v>
+        <v>28.44872701121202</v>
       </c>
       <c r="G16">
-        <v>3.645645783792741</v>
+        <v>2.051539578350283</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.943545194991508</v>
+        <v>6.905881153045213</v>
       </c>
       <c r="K16">
-        <v>17.64596051863768</v>
+        <v>25.55328408975087</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.26755406092509</v>
+        <v>11.66696143242224</v>
       </c>
       <c r="O16">
-        <v>25.33070925614147</v>
+        <v>18.9952590464607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.46324413466133</v>
+        <v>8.695315895060435</v>
       </c>
       <c r="D17">
-        <v>9.14159022970056</v>
+        <v>8.036476889122218</v>
       </c>
       <c r="E17">
-        <v>13.80651297770976</v>
+        <v>12.3666136526894</v>
       </c>
       <c r="F17">
-        <v>33.86882484225671</v>
+        <v>28.05246160740194</v>
       </c>
       <c r="G17">
-        <v>3.646624692772856</v>
+        <v>2.054422432485394</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.942557930962707</v>
+        <v>6.842112819762929</v>
       </c>
       <c r="K17">
-        <v>17.44766571769579</v>
+        <v>25.01742485841985</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.28357330337544</v>
+        <v>11.71062109817327</v>
       </c>
       <c r="O17">
-        <v>25.33787673794365</v>
+        <v>18.79521636050863</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.421072245967527</v>
+        <v>8.581255306406847</v>
       </c>
       <c r="D18">
-        <v>9.127335309927746</v>
+        <v>7.959688394069365</v>
       </c>
       <c r="E18">
-        <v>13.78749857733761</v>
+        <v>12.24805013781596</v>
       </c>
       <c r="F18">
-        <v>33.85582084326958</v>
+        <v>27.82575678086174</v>
       </c>
       <c r="G18">
-        <v>3.647195471907152</v>
+        <v>2.056088704331382</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.942154580859212</v>
+        <v>6.80569287512726</v>
       </c>
       <c r="K18">
-        <v>17.33274374743027</v>
+        <v>24.70458704771577</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.2929713695703</v>
+        <v>11.73618761159876</v>
       </c>
       <c r="O18">
-        <v>25.34269497718569</v>
+        <v>18.68200367428391</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.406741059313327</v>
+        <v>8.542371926747036</v>
       </c>
       <c r="D19">
-        <v>9.122526086063106</v>
+        <v>7.933581427849226</v>
       </c>
       <c r="E19">
-        <v>13.78110141120583</v>
+        <v>12.20779355215433</v>
       </c>
       <c r="F19">
-        <v>33.85158300240609</v>
+        <v>27.7492105786696</v>
       </c>
       <c r="G19">
-        <v>3.647390058590991</v>
+        <v>2.056654313903201</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.942046286758123</v>
+        <v>6.793406306945986</v>
       </c>
       <c r="K19">
-        <v>17.2936877685718</v>
+        <v>24.59786795901205</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.29618505122938</v>
+        <v>11.74492105308842</v>
       </c>
       <c r="O19">
-        <v>25.34444571695126</v>
+        <v>18.64398815823051</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.471023898748402</v>
+        <v>8.716300702663801</v>
       </c>
       <c r="D20">
-        <v>9.144236612373884</v>
+        <v>8.050637230568929</v>
       </c>
       <c r="E20">
-        <v>13.8100513862082</v>
+        <v>12.3885029216</v>
       </c>
       <c r="F20">
-        <v>33.87130997085976</v>
+        <v>28.09451957238678</v>
       </c>
       <c r="G20">
-        <v>3.646519685987219</v>
+        <v>2.054114716375251</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.94264600697128</v>
+        <v>6.848874444796707</v>
       </c>
       <c r="K20">
-        <v>17.46886525155689</v>
+        <v>25.07494599395461</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.28184896558774</v>
+        <v>11.70592615386032</v>
       </c>
       <c r="O20">
-        <v>25.33704171773154</v>
+        <v>18.81631994325251</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.683140448501101</v>
+        <v>9.282501660833512</v>
       </c>
       <c r="D21">
-        <v>9.218334992703026</v>
+        <v>8.436254158294352</v>
       </c>
       <c r="E21">
-        <v>13.91009388837724</v>
+        <v>12.98752818360719</v>
       </c>
       <c r="F21">
-        <v>33.94904942163754</v>
+        <v>29.26903487348537</v>
       </c>
       <c r="G21">
-        <v>3.643687647588081</v>
+        <v>2.045675928010576</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.946624718963335</v>
+        <v>7.03830137368416</v>
       </c>
       <c r="K21">
-        <v>18.046802807999</v>
+        <v>26.62283090703774</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.23588144448263</v>
+        <v>11.58042000297511</v>
       </c>
       <c r="O21">
-        <v>25.32048543155279</v>
+        <v>19.41745333353145</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.818657158542799</v>
+        <v>9.639266161310173</v>
       </c>
       <c r="D22">
-        <v>9.267568111895407</v>
+        <v>8.682375232381952</v>
       </c>
       <c r="E22">
-        <v>13.97747000549631</v>
+        <v>13.37270137900623</v>
       </c>
       <c r="F22">
-        <v>34.00836247680807</v>
+        <v>30.04690441141856</v>
       </c>
       <c r="G22">
-        <v>3.641905214247969</v>
+        <v>2.04022306944818</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.950684573105724</v>
+        <v>7.16434504175912</v>
       </c>
       <c r="K22">
-        <v>18.4160132266349</v>
+        <v>27.59399841907654</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.20747564122662</v>
+        <v>11.50269216070563</v>
       </c>
       <c r="O22">
-        <v>25.31588309451735</v>
+        <v>19.82695903059252</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.746628350837246</v>
+        <v>9.450051797170133</v>
       </c>
       <c r="D23">
-        <v>9.241221296698567</v>
+        <v>8.551565786746757</v>
       </c>
       <c r="E23">
-        <v>13.941332715691</v>
+        <v>13.16771971807146</v>
       </c>
       <c r="F23">
-        <v>33.97593026741616</v>
+        <v>29.63082417236168</v>
       </c>
       <c r="G23">
-        <v>3.642850288219403</v>
+        <v>2.043128165321967</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.94838448866494</v>
+        <v>7.096870031872923</v>
       </c>
       <c r="K23">
-        <v>18.21977223429096</v>
+        <v>27.0793340315328</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.22248678287908</v>
+        <v>11.54377081868414</v>
       </c>
       <c r="O23">
-        <v>25.317769516586</v>
+        <v>19.60686664512882</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.467507702578338</v>
+        <v>8.706818401695804</v>
       </c>
       <c r="D24">
-        <v>9.143039895174084</v>
+        <v>8.044237422060329</v>
       </c>
       <c r="E24">
-        <v>13.80845096595482</v>
+        <v>12.37860903098419</v>
       </c>
       <c r="F24">
-        <v>33.87018347214912</v>
+        <v>28.07550169109025</v>
       </c>
       <c r="G24">
-        <v>3.64656713465732</v>
+        <v>2.054253807059808</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.942605676156143</v>
+        <v>6.845816761776688</v>
       </c>
       <c r="K24">
-        <v>17.45928379785379</v>
+        <v>25.04895553900204</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.28262795180566</v>
+        <v>11.7080472893834</v>
       </c>
       <c r="O24">
-        <v>25.33741705771497</v>
+        <v>18.80677342594162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.154643385176754</v>
+        <v>7.84641037730963</v>
       </c>
       <c r="D25">
-        <v>9.040943942996281</v>
+        <v>7.472980745811459</v>
       </c>
       <c r="E25">
-        <v>13.67415111433777</v>
+        <v>11.50221314642552</v>
       </c>
       <c r="F25">
-        <v>33.79283911167211</v>
+        <v>26.44494163019893</v>
       </c>
       <c r="G25">
-        <v>3.650872406821493</v>
+        <v>2.066570362917127</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.942663040418962</v>
+        <v>6.584929976607149</v>
       </c>
       <c r="K25">
-        <v>16.60635735598012</v>
+        <v>22.68163536792914</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.3545457183702</v>
+        <v>11.90251732801736</v>
       </c>
       <c r="O25">
-        <v>25.38518664982512</v>
+        <v>18.01422565106429</v>
       </c>
     </row>
   </sheetData>
